--- a/fechamento_2021/fechamento_marco/GeralMarco6.xlsx
+++ b/fechamento_2021/fechamento_marco/GeralMarco6.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="236">
   <si>
     <t>Concluído</t>
   </si>
@@ -27,9 +27,6 @@
     <t>TESTE RÁPIDO - ANTÍG</t>
   </si>
   <si>
-    <t>Ignorado</t>
-  </si>
-  <si>
     <t>Confirmado Laboratorial</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Assintomatico</t>
   </si>
   <si>
-    <t>Não Reagente</t>
-  </si>
-  <si>
     <t>TESTE SOROLÓGICO IgM</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>Dor de Cabeca</t>
   </si>
   <si>
-    <t>JULIA CHAVES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Dispneia, Tosse, Dor de Cabeca, Disturbios Gustativos, Disturbios Olf</t>
-  </si>
-  <si>
     <t>TESTE RÁPIDO - ANTIC</t>
   </si>
   <si>
@@ -135,12 +123,6 @@
     <t>Febre, Tosse, Dispneia, Dor de Cabeca</t>
   </si>
   <si>
-    <t>JUNIA GRAZIELLE FERREIRA LOPES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>Dispneia, Dor de Garganta, Febre, Outros</t>
-  </si>
-  <si>
     <t>Dor de Cabeca, Tosse, Disturbios Gustativos, Disturbios Olfativos</t>
   </si>
   <si>
@@ -348,24 +330,15 @@
     <t>Dor de Garganta, Dispneia, Febre, Tosse, Dor de Cabeca, Disturbios Gustativos, Disturb</t>
   </si>
   <si>
-    <t>Tosse, Febre</t>
-  </si>
-  <si>
     <t>PRISCILA APARECIDA DE CA ARGO</t>
   </si>
   <si>
     <t>Dor de Garganta, Outros</t>
   </si>
   <si>
-    <t>JOYCE ALVES DOS CARDOSO</t>
-  </si>
-  <si>
     <t>PETERSON MATHEUS JESUS DOS SANTOS</t>
   </si>
   <si>
-    <t>JUNIELE MARIA INACIO DOS SANTOS</t>
-  </si>
-  <si>
     <t>LIVIA VITORIA DA SILVA SANTOS SIQUEIRA</t>
   </si>
   <si>
@@ -414,12 +387,6 @@
     <t>Tosse, Dispneia</t>
   </si>
   <si>
-    <t>JUDITE FRANCISCO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>Dispneia, Febre, Tosse, Dor de Cabeca, Coriza, Disturbios Olfativos, Disturbios Gustat</t>
-  </si>
-  <si>
     <t>SUELLEN BERTOLDO</t>
   </si>
   <si>
@@ -453,12 +420,6 @@
     <t>Síndrome Gripal Não Especificada</t>
   </si>
   <si>
-    <t>LARISSA GOLCALVES BRITO</t>
-  </si>
-  <si>
-    <t>Coriza, Tosse, Outros, Febre</t>
-  </si>
-  <si>
     <t>PHELIPE DE OLIVEIRA SILVA</t>
   </si>
   <si>
@@ -480,18 +441,6 @@
     <t>Dor de Cabeca, Outros</t>
   </si>
   <si>
-    <t>KENZO HENRYK QUEIROZ KERN</t>
-  </si>
-  <si>
-    <t>Coriza, Dor de Cabeca, Outros</t>
-  </si>
-  <si>
-    <t>LETICIA CRISTINA CALIENTE</t>
-  </si>
-  <si>
-    <t>LARISSA SANTIAGO DE CASTRO</t>
-  </si>
-  <si>
     <t>SAMUEL HENRIQUE SANTOS CAMPOS</t>
   </si>
   <si>
@@ -531,36 +480,15 @@
     <t>Disturbios Olfativos, Disturbios Gustativos, Coriza</t>
   </si>
   <si>
-    <t>LARISSA FERREIRA GONCALVES</t>
-  </si>
-  <si>
-    <t>Febre, Dor de Cabeca, Dor de Garganta, Outros</t>
-  </si>
-  <si>
-    <t>KAROLINNY FERNANDA DE OLIVEIRA FERREIRA</t>
-  </si>
-  <si>
     <t>Dor de Garganta, Tosse, Disturbios Gustativos, Disturbios Olfativos</t>
   </si>
   <si>
-    <t>KARLA FRANCA BISPO</t>
-  </si>
-  <si>
-    <t>Dispneia, Tosse, Dor de Cabeca, Coriza</t>
-  </si>
-  <si>
     <t>SEBASTIAO JUCA DA SILVA</t>
   </si>
   <si>
     <t>Dor de Garganta, Tosse, Dispneia, Coriza, Outros</t>
   </si>
   <si>
-    <t>LEONIDAS FRANCISCO DA CRUZ</t>
-  </si>
-  <si>
-    <t>Tosse, Febre, Dispneia</t>
-  </si>
-  <si>
     <t>MISLENE DA SILVA NASCIMENTO</t>
   </si>
   <si>
@@ -612,19 +540,10 @@
     <t>Febre, Dor de Cabeca, Tosse</t>
   </si>
   <si>
-    <t>LEONARDO FARBO KAMPF</t>
-  </si>
-  <si>
     <t>MIRIAM BARBOSA OLIVEIRA</t>
   </si>
   <si>
     <t>Tosse, Dor de Cabeca, Febre, Outros</t>
-  </si>
-  <si>
-    <t>KEITH ELLEN DOS SANTOS ALMEIDA</t>
-  </si>
-  <si>
-    <t>Disturbios Gustativos, Disturbios Olfativos, Dor de Cabeca, Febre</t>
   </si>
   <si>
     <t>NU_NOTIFIC</t>
@@ -1164,11 +1083,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI101"/>
+  <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD86"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1210,213 +1127,213 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AC1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AD1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AF1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AG1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AI1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AJ1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AK1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AM1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AN1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AO1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AP1" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="AQ1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AR1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AT1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AU1" t="s">
         <v>221</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AV1" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AW1" t="s">
         <v>223</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AX1" t="s">
         <v>224</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AZ1" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BA1" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BB1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="BC1" t="s">
         <v>229</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BD1" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BE1" t="s">
         <v>231</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="BF1" t="s">
         <v>232</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BG1" t="s">
         <v>233</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BH1" t="s">
         <v>234</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="BI1" t="s">
         <v>235</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>352173133011</v>
+        <v>352172863293</v>
       </c>
       <c r="B2" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
-        <v>30021</v>
+        <v>38967</v>
       </c>
       <c r="E2" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4"/>
       <c r="S2" s="4"/>
@@ -1426,47 +1343,47 @@
       <c r="AE2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AL2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN2" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="AS2" s="4"/>
       <c r="AY2" s="4"/>
       <c r="BH2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352173176075</v>
+        <v>352173056400</v>
       </c>
       <c r="B3" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2">
-        <v>15328</v>
+        <v>30545</v>
       </c>
       <c r="E3" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P3" s="4"/>
       <c r="S3" s="4"/>
@@ -1476,50 +1393,50 @@
       <c r="AE3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AL3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN3" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="AS3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="BD3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BF3" s="2">
         <v>44411</v>
       </c>
       <c r="BH3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>352172828797</v>
+        <v>352173002641</v>
       </c>
       <c r="B4" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2">
-        <v>36361</v>
+        <v>29170</v>
       </c>
       <c r="E4" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L4" s="3"/>
       <c r="P4" s="4"/>
@@ -1527,55 +1444,42 @@
       <c r="V4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AE4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>44276</v>
-      </c>
+      <c r="AE4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AL4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>44276</v>
-      </c>
+      <c r="AL4" s="4"/>
       <c r="AS4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="BH4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352172850460</v>
+        <v>352173143549</v>
       </c>
       <c r="B5" s="2">
-        <v>44276</v>
+        <v>44266</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2">
-        <v>29423</v>
+        <v>43513</v>
       </c>
       <c r="E5" s="2">
-        <v>44273</v>
+        <v>44264</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="J5" s="2">
-        <v>44276</v>
+        <v>44266</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4"/>
       <c r="S5" s="4"/>
@@ -1585,97 +1489,112 @@
       <c r="AE5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AL5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN5" s="2">
-        <v>44276</v>
+        <v>44266</v>
       </c>
       <c r="AS5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BH5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>352173138215</v>
+        <v>352172877804</v>
       </c>
       <c r="B6" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2">
-        <v>37288</v>
+        <v>41225</v>
       </c>
       <c r="E6" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="P6" s="4"/>
       <c r="S6" s="4"/>
       <c r="V6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>44276</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>22</v>
+      </c>
       <c r="AH6" s="4"/>
       <c r="AL6" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN6" s="2">
-        <v>44277</v>
+        <v>44276</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>22</v>
       </c>
       <c r="AS6" s="4"/>
       <c r="AY6" s="4"/>
+      <c r="BD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>44294</v>
+      </c>
       <c r="BH6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352173395325</v>
+        <v>352173461066</v>
       </c>
       <c r="B7" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2">
-        <v>29057</v>
+        <v>43565</v>
       </c>
       <c r="E7" s="2">
-        <v>44270</v>
+        <v>44275</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J7" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4"/>
       <c r="S7" s="4"/>
@@ -1685,48 +1604,52 @@
       <c r="AE7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AL7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN7" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="AS7" s="4"/>
       <c r="AY7" s="4"/>
+      <c r="BD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>352173386027</v>
+        <v>352173173177</v>
       </c>
       <c r="B8" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2">
-        <v>38414</v>
+        <v>34730</v>
       </c>
       <c r="E8" s="2">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L8" s="3"/>
       <c r="P8" s="4"/>
       <c r="S8" s="4"/>
       <c r="V8" s="4"/>
@@ -1734,182 +1657,155 @@
       <c r="AB8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AL8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>44278</v>
-      </c>
+      <c r="AL8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="BH8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>352173533188</v>
+        <v>352173347874</v>
       </c>
       <c r="B9" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2">
-        <v>36259</v>
+        <v>34610</v>
       </c>
       <c r="E9" s="2">
-        <v>44276</v>
+        <v>44259</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="2">
-        <v>44279</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L9" s="3"/>
       <c r="P9" s="4"/>
       <c r="S9" s="4"/>
       <c r="V9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AH9" s="4"/>
+      <c r="AH9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>44264</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>22</v>
+      </c>
       <c r="AL9" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="2">
-        <v>44279</v>
+        <v>44264</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>22</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="BH9" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352173262976</v>
+        <v>352173476268</v>
       </c>
       <c r="B10" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D10" s="2">
-        <v>41700</v>
+        <v>21989</v>
       </c>
       <c r="E10" s="2">
         <v>44274</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44279</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>44277</v>
-      </c>
-      <c r="U10" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>44277</v>
-      </c>
-      <c r="X10" t="s">
-        <v>7</v>
-      </c>
+      <c r="S10" s="4"/>
+      <c r="V10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AL10" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN10" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>7</v>
-      </c>
+        <v>44279</v>
+      </c>
+      <c r="AS10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="BD10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BE10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BF10" s="2">
-        <v>44291</v>
+        <v>44411</v>
       </c>
       <c r="BH10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352173376380</v>
+        <v>352172979579</v>
       </c>
       <c r="B11" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2">
-        <v>39097</v>
+        <v>43684</v>
       </c>
       <c r="E11" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="J11" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4"/>
       <c r="S11" s="4"/>
@@ -1919,131 +1815,97 @@
       <c r="AE11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AL11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN11" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="BH11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>352173240891</v>
+        <v>352173110613</v>
       </c>
       <c r="B12" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
-        <v>43717</v>
+        <v>31405</v>
       </c>
       <c r="E12" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P12" s="4"/>
-      <c r="S12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>44277</v>
-      </c>
-      <c r="U12" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>44277</v>
-      </c>
-      <c r="X12" t="s">
-        <v>7</v>
-      </c>
+      <c r="S12" s="4"/>
+      <c r="V12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AL12" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN12" s="2">
         <v>44277</v>
       </c>
-      <c r="AO12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>7</v>
-      </c>
+      <c r="AS12" s="4"/>
       <c r="AY12" s="4"/>
-      <c r="BD12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>44284</v>
-      </c>
       <c r="BH12" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>352173289187</v>
+        <v>352173175171</v>
       </c>
       <c r="B13" s="2">
         <v>44278</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2">
-        <v>33827</v>
+        <v>26556</v>
       </c>
       <c r="E13" s="2">
         <v>44272</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J13" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4"/>
       <c r="S13" s="4"/>
@@ -2053,98 +1915,93 @@
       <c r="AE13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN13" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="AS13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="BH13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>352173510269</v>
+        <v>352172990304</v>
       </c>
       <c r="B14" s="2">
-        <v>44279</v>
+        <v>44274</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2">
-        <v>33535</v>
+        <v>26019</v>
       </c>
       <c r="E14" s="2">
-        <v>44275</v>
+        <v>44265</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="2">
-        <v>44279</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L14" s="3"/>
       <c r="P14" s="4"/>
       <c r="S14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>44274</v>
+      </c>
       <c r="AB14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AL14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="AN14" s="2">
-        <v>44279</v>
+        <v>44274</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="BH14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>352173424410</v>
+        <v>352173069100</v>
       </c>
       <c r="B15" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2">
-        <v>17869</v>
+        <v>22818</v>
       </c>
       <c r="E15" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="L15" s="3"/>
       <c r="P15" s="4"/>
       <c r="S15" s="4"/>
       <c r="V15" s="4"/>
@@ -2152,48 +2009,40 @@
       <c r="AB15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AL15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>44278</v>
-      </c>
+      <c r="AL15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="BH15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>352173278664</v>
+        <v>352173058834</v>
       </c>
       <c r="B16" s="2">
         <v>44277</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2">
-        <v>37372</v>
+        <v>32099</v>
       </c>
       <c r="E16" s="2">
-        <v>44275</v>
+        <v>44271</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="J16" s="2">
         <v>44277</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4"/>
       <c r="S16" s="4"/>
@@ -2203,47 +2052,56 @@
       <c r="AE16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AL16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN16" s="2">
         <v>44277</v>
       </c>
       <c r="AS16" s="4"/>
       <c r="AY16" s="4"/>
+      <c r="BD16" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH16" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>352172863293</v>
+        <v>352172993640</v>
       </c>
       <c r="B17" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2">
-        <v>38967</v>
+        <v>29101</v>
       </c>
       <c r="E17" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J17" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4"/>
       <c r="S17" s="4"/>
@@ -2253,102 +2111,120 @@
       <c r="AE17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AL17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN17" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="BH17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>352173056400</v>
+        <v>352172912554</v>
       </c>
       <c r="B18" s="2">
         <v>44277</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>30545</v>
+        <v>21170</v>
       </c>
       <c r="E18" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L18" s="3"/>
       <c r="P18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="2">
+        <v>44277</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="2">
+        <v>44277</v>
+      </c>
       <c r="Y18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AL18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AN18" s="2">
         <v>44277</v>
       </c>
-      <c r="AS18" s="4"/>
+      <c r="AR18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>44277</v>
+      </c>
       <c r="AY18" s="4"/>
       <c r="BD18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BF18" s="2">
         <v>44411</v>
       </c>
       <c r="BH18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>352173002641</v>
+        <v>352173311082</v>
       </c>
       <c r="B19" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D19" s="2">
-        <v>29170</v>
+        <v>27998</v>
       </c>
       <c r="E19" s="2">
-        <v>44271</v>
+        <v>44274</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44278</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="S19" s="4"/>
       <c r="V19" s="4"/>
@@ -2356,40 +2232,48 @@
       <c r="AB19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AH19" s="4"/>
-      <c r="AL19" s="4"/>
+      <c r="AL19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>44278</v>
+      </c>
       <c r="AS19" s="4"/>
       <c r="AY19" s="4"/>
       <c r="BH19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>352173143549</v>
+        <v>352173012325</v>
       </c>
       <c r="B20" s="2">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2">
-        <v>43513</v>
+        <v>22715</v>
       </c>
       <c r="E20" s="2">
-        <v>44264</v>
+        <v>44274</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="J20" s="2">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4"/>
       <c r="S20" s="4"/>
@@ -2399,112 +2283,106 @@
       <c r="AE20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AL20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN20" s="2">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="AS20" s="4"/>
       <c r="AY20" s="4"/>
+      <c r="BD20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH20" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>352172877804</v>
+        <v>352173316793</v>
       </c>
       <c r="B21" s="2">
-        <v>44276</v>
+        <v>44278</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2">
-        <v>41225</v>
+        <v>21616</v>
       </c>
       <c r="E21" s="2">
-        <v>44276</v>
+        <v>44274</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44278</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="S21" s="4"/>
       <c r="V21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AE21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>44276</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AL21" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AN21" s="2">
-        <v>44276</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>26</v>
+        <v>44278</v>
       </c>
       <c r="AS21" s="4"/>
       <c r="AY21" s="4"/>
-      <c r="BD21" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF21" s="2">
-        <v>44294</v>
-      </c>
       <c r="BH21" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>352173461066</v>
+        <v>352173247721</v>
       </c>
       <c r="B22" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2">
-        <v>43565</v>
+        <v>33923</v>
       </c>
       <c r="E22" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="J22" s="2">
         <v>44278</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4"/>
       <c r="S22" s="4"/>
@@ -2514,52 +2392,48 @@
       <c r="AE22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AL22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN22" s="2">
         <v>44278</v>
       </c>
       <c r="AS22" s="4"/>
       <c r="AY22" s="4"/>
-      <c r="BD22" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH22" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>352173173177</v>
+        <v>352173362001</v>
       </c>
       <c r="B23" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2">
-        <v>34730</v>
+        <v>22911</v>
       </c>
       <c r="E23" s="2">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L23" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44278</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="S23" s="4"/>
       <c r="V23" s="4"/>
@@ -2567,96 +2441,98 @@
       <c r="AB23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AL23" s="4"/>
+      <c r="AL23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>44278</v>
+      </c>
       <c r="AS23" s="4"/>
       <c r="AY23" s="4"/>
       <c r="BH23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>352173347874</v>
+        <v>352172884567</v>
       </c>
       <c r="B24" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2">
-        <v>34610</v>
+        <v>33004</v>
       </c>
       <c r="E24" s="2">
-        <v>44259</v>
+        <v>44270</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44276</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P24" s="4"/>
       <c r="S24" s="4"/>
       <c r="V24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AE24" s="4"/>
-      <c r="AH24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>44264</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>26</v>
-      </c>
+      <c r="AH24" s="4"/>
       <c r="AL24" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM24" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AN24" s="2">
-        <v>44264</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>26</v>
+        <v>44276</v>
       </c>
       <c r="AS24" s="4"/>
       <c r="AY24" s="4"/>
       <c r="BH24" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>352173476268</v>
+        <v>352172962059</v>
       </c>
       <c r="B25" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2">
-        <v>21989</v>
+        <v>31621</v>
       </c>
       <c r="E25" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="J25" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4"/>
       <c r="S25" s="4"/>
@@ -2666,56 +2542,47 @@
       <c r="AE25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AL25" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN25" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="AS25" s="4"/>
       <c r="AY25" s="4"/>
-      <c r="BD25" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF25" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>352172979579</v>
+        <v>352173255268</v>
       </c>
       <c r="B26" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2">
-        <v>43684</v>
+        <v>43362</v>
       </c>
       <c r="E26" s="2">
         <v>44274</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="J26" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4"/>
       <c r="S26" s="4"/>
@@ -2725,48 +2592,43 @@
       <c r="AE26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AL26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN26" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="AS26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="BH26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>352173110613</v>
+        <v>352172826881</v>
       </c>
       <c r="B27" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>31405</v>
+        <v>24222</v>
       </c>
       <c r="E27" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L27" s="3"/>
       <c r="P27" s="4"/>
       <c r="S27" s="4"/>
       <c r="V27" s="4"/>
@@ -2774,48 +2636,40 @@
       <c r="AB27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AL27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AL27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AY27" s="4"/>
       <c r="BH27" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>352173175171</v>
+        <v>352173526506</v>
       </c>
       <c r="B28" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2">
-        <v>26556</v>
+        <v>23463</v>
       </c>
       <c r="E28" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="J28" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4"/>
       <c r="S28" s="4"/>
@@ -2825,93 +2679,116 @@
       <c r="AE28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AL28" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN28" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="AS28" s="4"/>
       <c r="AY28" s="4"/>
+      <c r="BD28" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>44293</v>
+      </c>
       <c r="BH28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>352172990304</v>
+        <v>352173427143</v>
       </c>
       <c r="B29" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2">
-        <v>26019</v>
+        <v>32330</v>
       </c>
       <c r="E29" s="2">
-        <v>44265</v>
+        <v>44270</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44278</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P29" s="4"/>
       <c r="S29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="Y29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>44274</v>
-      </c>
+      <c r="Y29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AH29" s="4"/>
       <c r="AL29" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="AN29" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="AS29" s="4"/>
       <c r="AY29" s="4"/>
+      <c r="BD29" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH29" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>352173069100</v>
+        <v>352173438422</v>
       </c>
       <c r="B30" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2">
-        <v>22818</v>
+        <v>31059</v>
       </c>
       <c r="E30" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44278</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P30" s="4"/>
       <c r="S30" s="4"/>
       <c r="V30" s="4"/>
@@ -2919,40 +2796,57 @@
       <c r="AB30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AH30" s="4"/>
-      <c r="AL30" s="4"/>
+      <c r="AL30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>44278</v>
+      </c>
       <c r="AS30" s="4"/>
       <c r="AY30" s="4"/>
+      <c r="BD30" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH30" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>352173058834</v>
+        <v>352173099008</v>
       </c>
       <c r="B31" s="2">
         <v>44277</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2">
-        <v>32099</v>
+        <v>31954</v>
       </c>
       <c r="E31" s="2">
         <v>44271</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2">
         <v>44277</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P31" s="4"/>
       <c r="S31" s="4"/>
@@ -2962,10 +2856,10 @@
       <c r="AE31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AL31" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN31" s="2">
         <v>44277</v>
@@ -2973,45 +2867,45 @@
       <c r="AS31" s="4"/>
       <c r="AY31" s="4"/>
       <c r="BD31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BF31" s="2">
         <v>44411</v>
       </c>
       <c r="BH31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>352172993640</v>
+        <v>352173505910</v>
       </c>
       <c r="B32" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="D32" s="2">
-        <v>29101</v>
+        <v>35102</v>
       </c>
       <c r="E32" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="J32" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4"/>
       <c r="S32" s="4"/>
@@ -3021,120 +2915,93 @@
       <c r="AE32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AL32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN32" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="AS32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="BH32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>352172912554</v>
+        <v>352173151946</v>
       </c>
       <c r="B33" s="2">
         <v>44277</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2">
-        <v>21170</v>
+        <v>36056</v>
       </c>
       <c r="E33" s="2">
-        <v>44272</v>
+        <v>44275</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P33" s="4"/>
-      <c r="S33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T33" s="2">
-        <v>44277</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W33" s="2">
-        <v>44277</v>
-      </c>
+      <c r="S33" s="4"/>
+      <c r="V33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AL33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN33" s="2">
         <v>44277</v>
       </c>
-      <c r="AR33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AS33" s="4"/>
       <c r="AY33" s="4"/>
-      <c r="BD33" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF33" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH33" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>352173311082</v>
+        <v>352173093158</v>
       </c>
       <c r="B34" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2">
-        <v>27998</v>
+        <v>27224</v>
       </c>
       <c r="E34" s="2">
-        <v>44274</v>
+        <v>44271</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="L34" s="3"/>
       <c r="P34" s="4"/>
       <c r="S34" s="4"/>
       <c r="V34" s="4"/>
@@ -3142,48 +3009,40 @@
       <c r="AB34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AL34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>44278</v>
-      </c>
+      <c r="AL34" s="4"/>
       <c r="AS34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="BH34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>352173012325</v>
+        <v>352172962866</v>
       </c>
       <c r="B35" s="2">
         <v>44277</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D35" s="2">
-        <v>22715</v>
+        <v>31104</v>
       </c>
       <c r="E35" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J35" s="2">
         <v>44277</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P35" s="4"/>
       <c r="S35" s="4"/>
@@ -3193,56 +3052,47 @@
       <c r="AE35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AL35" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN35" s="2">
         <v>44277</v>
       </c>
       <c r="AS35" s="4"/>
       <c r="AY35" s="4"/>
-      <c r="BD35" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF35" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>352173316793</v>
+        <v>352172907298</v>
       </c>
       <c r="B36" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2">
-        <v>21616</v>
+        <v>24655</v>
       </c>
       <c r="E36" s="2">
         <v>44274</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="J36" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4"/>
       <c r="S36" s="4"/>
@@ -3252,47 +3102,47 @@
       <c r="AE36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AL36" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN36" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="AS36" s="4"/>
       <c r="AY36" s="4"/>
       <c r="BH36" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>352173247721</v>
+        <v>352173453334</v>
       </c>
       <c r="B37" s="2">
         <v>44278</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D37" s="2">
-        <v>33923</v>
+        <v>37396</v>
       </c>
       <c r="E37" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J37" s="2">
         <v>44278</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P37" s="4"/>
       <c r="S37" s="4"/>
@@ -3302,98 +3152,108 @@
       <c r="AE37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AL37" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN37" s="2">
         <v>44278</v>
       </c>
       <c r="AS37" s="4"/>
       <c r="AY37" s="4"/>
+      <c r="BD37" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>44660</v>
+      </c>
       <c r="BH37" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>352173362001</v>
+        <v>352172829001</v>
       </c>
       <c r="B38" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
-        <v>22911</v>
+        <v>32036</v>
       </c>
       <c r="E38" s="2">
         <v>44273</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="P38" s="4"/>
       <c r="S38" s="4"/>
       <c r="V38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AH38" s="4"/>
+      <c r="AH38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>22</v>
+      </c>
       <c r="AL38" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN38" s="2">
-        <v>44278</v>
+        <v>44273</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>22</v>
       </c>
       <c r="AS38" s="4"/>
       <c r="AY38" s="4"/>
       <c r="BH38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>352172884567</v>
+        <v>352172828920</v>
       </c>
       <c r="B39" s="2">
         <v>44276</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>33004</v>
+        <v>34033</v>
       </c>
       <c r="E39" s="2">
-        <v>44270</v>
+        <v>44273</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" s="2">
-        <v>44276</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L39" s="3"/>
       <c r="P39" s="4"/>
       <c r="S39" s="4"/>
       <c r="V39" s="4"/>
@@ -3401,48 +3261,40 @@
       <c r="AB39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AH39" s="4"/>
-      <c r="AL39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>44276</v>
-      </c>
+      <c r="AL39" s="4"/>
       <c r="AS39" s="4"/>
       <c r="AY39" s="4"/>
       <c r="BH39" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>352172962059</v>
+        <v>352172890660</v>
       </c>
       <c r="B40" s="2">
         <v>44277</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2">
-        <v>31621</v>
+        <v>23337</v>
       </c>
       <c r="E40" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J40" s="2">
         <v>44277</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P40" s="4"/>
       <c r="S40" s="4"/>
@@ -3452,10 +3304,10 @@
       <c r="AE40" s="4"/>
       <c r="AH40" s="4"/>
       <c r="AL40" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN40" s="2">
         <v>44277</v>
@@ -3463,37 +3315,32 @@
       <c r="AS40" s="4"/>
       <c r="AY40" s="4"/>
       <c r="BH40" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>352173255268</v>
+        <v>352173133298</v>
       </c>
       <c r="B41" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2">
-        <v>43362</v>
+        <v>35642</v>
       </c>
       <c r="E41" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L41" s="3"/>
       <c r="P41" s="4"/>
       <c r="S41" s="4"/>
       <c r="V41" s="4"/>
@@ -3501,44 +3348,41 @@
       <c r="AB41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AH41" s="4"/>
-      <c r="AL41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>44278</v>
-      </c>
+      <c r="AL41" s="4"/>
       <c r="AS41" s="4"/>
       <c r="AY41" s="4"/>
       <c r="BH41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>352172826881</v>
+        <v>352173243150</v>
       </c>
       <c r="B42" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2">
-        <v>24222</v>
+        <v>34142</v>
       </c>
       <c r="E42" s="2">
-        <v>44270</v>
+        <v>44275</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P42" s="4"/>
       <c r="S42" s="4"/>
       <c r="V42" s="4"/>
@@ -3546,99 +3390,104 @@
       <c r="AB42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AH42" s="4"/>
-      <c r="AL42" s="4"/>
+      <c r="AL42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>44277</v>
+      </c>
       <c r="AS42" s="4"/>
       <c r="AY42" s="4"/>
       <c r="BH42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>352173526506</v>
+        <v>352173122850</v>
       </c>
       <c r="B43" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2">
-        <v>23463</v>
+        <v>35396</v>
       </c>
       <c r="E43" s="2">
-        <v>44274</v>
+        <v>44268</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
-      </c>
-      <c r="J43" s="2">
-        <v>44279</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L43" s="3"/>
       <c r="P43" s="4"/>
       <c r="S43" s="4"/>
       <c r="V43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AE43" s="4"/>
-      <c r="AH43" s="4"/>
+      <c r="AH43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>22</v>
+      </c>
       <c r="AL43" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="2">
-        <v>44279</v>
+        <v>44271</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>22</v>
       </c>
       <c r="AS43" s="4"/>
       <c r="AY43" s="4"/>
-      <c r="BD43" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF43" s="2">
-        <v>44293</v>
-      </c>
       <c r="BH43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>352173427143</v>
+        <v>352173314711</v>
       </c>
       <c r="B44" s="2">
         <v>44278</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2">
-        <v>32330</v>
+        <v>15058</v>
       </c>
       <c r="E44" s="2">
-        <v>44270</v>
+        <v>44278</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2">
         <v>44278</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P44" s="4"/>
       <c r="S44" s="4"/>
@@ -3648,115 +3497,103 @@
       <c r="AE44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AL44" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN44" s="2">
         <v>44278</v>
       </c>
       <c r="AS44" s="4"/>
       <c r="AY44" s="4"/>
-      <c r="BD44" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE44" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF44" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH44" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>352173438422</v>
+        <v>352172859490</v>
       </c>
       <c r="B45" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
-        <v>31059</v>
+        <v>27592</v>
       </c>
       <c r="E45" s="2">
-        <v>44270</v>
+        <v>44274</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
-      </c>
-      <c r="J45" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L45" s="3"/>
       <c r="P45" s="4"/>
       <c r="S45" s="4"/>
       <c r="V45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AH45" s="4"/>
+      <c r="AH45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>44276</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>22</v>
+      </c>
       <c r="AL45" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="2">
-        <v>44278</v>
+        <v>44276</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>22</v>
       </c>
       <c r="AS45" s="4"/>
       <c r="AY45" s="4"/>
-      <c r="BD45" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF45" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH45" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>352173099008</v>
+        <v>352173483421</v>
       </c>
       <c r="B46" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D46" s="2">
-        <v>31954</v>
+        <v>31746</v>
       </c>
       <c r="E46" s="2">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="J46" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P46" s="4"/>
       <c r="S46" s="4"/>
@@ -3766,56 +3603,56 @@
       <c r="AE46" s="4"/>
       <c r="AH46" s="4"/>
       <c r="AL46" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN46" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="AS46" s="4"/>
       <c r="AY46" s="4"/>
       <c r="BD46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE46" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="BF46" s="2">
-        <v>44411</v>
+        <v>44299</v>
       </c>
       <c r="BH46" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>352173505910</v>
+        <v>352173116193</v>
       </c>
       <c r="B47" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2">
-        <v>35102</v>
+        <v>34851</v>
       </c>
       <c r="E47" s="2">
-        <v>44275</v>
+        <v>44272</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="J47" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P47" s="4"/>
       <c r="S47" s="4"/>
@@ -3825,47 +3662,56 @@
       <c r="AE47" s="4"/>
       <c r="AH47" s="4"/>
       <c r="AL47" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN47" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="AS47" s="4"/>
       <c r="AY47" s="4"/>
+      <c r="BD47" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF47" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH47" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>352173151946</v>
+        <v>352173178671</v>
       </c>
       <c r="B48" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D48" s="2">
-        <v>36056</v>
+        <v>26373</v>
       </c>
       <c r="E48" s="2">
-        <v>44275</v>
+        <v>44270</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J48" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P48" s="4"/>
       <c r="S48" s="4"/>
@@ -3875,41 +3721,47 @@
       <c r="AE48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AL48" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN48" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="AS48" s="4"/>
       <c r="AY48" s="4"/>
+      <c r="BD48" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF48" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH48" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>352173093158</v>
+        <v>352172848499</v>
       </c>
       <c r="B49" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="2">
-        <v>27224</v>
-      </c>
-      <c r="E49" s="2">
-        <v>44271</v>
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="L49" s="3"/>
       <c r="P49" s="4"/>
@@ -3923,37 +3775,32 @@
       <c r="AS49" s="4"/>
       <c r="AY49" s="4"/>
       <c r="BH49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>352172962866</v>
+        <v>352172828979</v>
       </c>
       <c r="B50" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2">
-        <v>31104</v>
+        <v>31806</v>
       </c>
       <c r="E50" s="2">
-        <v>44272</v>
+        <v>44266</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L50" s="3"/>
       <c r="P50" s="4"/>
       <c r="S50" s="4"/>
       <c r="V50" s="4"/>
@@ -3961,48 +3808,40 @@
       <c r="AB50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AH50" s="4"/>
-      <c r="AL50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN50" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AL50" s="4"/>
       <c r="AS50" s="4"/>
       <c r="AY50" s="4"/>
       <c r="BH50" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>352172907298</v>
+        <v>352172837933</v>
       </c>
       <c r="B51" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2">
-        <v>24655</v>
+        <v>25905</v>
       </c>
       <c r="E51" s="2">
-        <v>44274</v>
+        <v>44269</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P51" s="4"/>
       <c r="S51" s="4"/>
@@ -4012,47 +3851,47 @@
       <c r="AE51" s="4"/>
       <c r="AH51" s="4"/>
       <c r="AL51" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN51" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="AS51" s="4"/>
       <c r="AY51" s="4"/>
       <c r="BH51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>352173453334</v>
+        <v>352172837668</v>
       </c>
       <c r="B52" s="2">
-        <v>44278</v>
+        <v>44275</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2">
-        <v>37396</v>
+        <v>27850</v>
       </c>
       <c r="E52" s="2">
+        <v>44261</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="2">
         <v>44275</v>
       </c>
-      <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="J52" s="2">
-        <v>44278</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P52" s="4"/>
       <c r="S52" s="4"/>
@@ -4062,108 +3901,98 @@
       <c r="AE52" s="4"/>
       <c r="AH52" s="4"/>
       <c r="AL52" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN52" s="2">
-        <v>44278</v>
+        <v>44275</v>
       </c>
       <c r="AS52" s="4"/>
       <c r="AY52" s="4"/>
-      <c r="BD52" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE52" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF52" s="2">
-        <v>44660</v>
-      </c>
       <c r="BH52" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>352172829001</v>
+        <v>352173156761</v>
       </c>
       <c r="B53" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D53" s="2">
-        <v>32036</v>
+        <v>20615</v>
       </c>
       <c r="E53" s="2">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="J53" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P53" s="4"/>
       <c r="S53" s="4"/>
       <c r="V53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AH53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="2">
-        <v>44273</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>26</v>
-      </c>
+      <c r="AH53" s="4"/>
       <c r="AL53" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM53" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AN53" s="2">
-        <v>44273</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>26</v>
+        <v>44277</v>
       </c>
       <c r="AS53" s="4"/>
       <c r="AY53" s="4"/>
       <c r="BH53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>352172828920</v>
+        <v>352172883220</v>
       </c>
       <c r="B54" s="2">
         <v>44276</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2">
-        <v>34033</v>
+        <v>35606</v>
       </c>
       <c r="E54" s="2">
         <v>44273</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44276</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P54" s="4"/>
       <c r="S54" s="4"/>
       <c r="V54" s="4"/>
@@ -4171,40 +4000,48 @@
       <c r="AB54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AH54" s="4"/>
-      <c r="AL54" s="4"/>
+      <c r="AL54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>44276</v>
+      </c>
       <c r="AS54" s="4"/>
       <c r="AY54" s="4"/>
       <c r="BH54" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>352172890660</v>
+        <v>352173375009</v>
       </c>
       <c r="B55" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="D55" s="2">
-        <v>23337</v>
+        <v>30315</v>
       </c>
       <c r="E55" s="2">
         <v>44274</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="J55" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P55" s="4"/>
       <c r="S55" s="4"/>
@@ -4214,41 +4051,50 @@
       <c r="AE55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AL55" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN55" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="AS55" s="4"/>
       <c r="AY55" s="4"/>
+      <c r="BD55" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF55" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH55" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>352173133298</v>
+        <v>352173174297</v>
       </c>
       <c r="B56" s="2">
         <v>44277</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D56" s="2">
-        <v>35642</v>
+        <v>24113</v>
       </c>
       <c r="E56" s="2">
-        <v>44273</v>
+        <v>44268</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="L56" s="3"/>
       <c r="P56" s="4"/>
@@ -4262,36 +4108,36 @@
       <c r="AS56" s="4"/>
       <c r="AY56" s="4"/>
       <c r="BH56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>352173243150</v>
+        <v>352173351085</v>
       </c>
       <c r="B57" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57" s="2">
-        <v>34142</v>
+        <v>28909</v>
       </c>
       <c r="E57" s="2">
-        <v>44275</v>
+        <v>44146</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J57" s="2">
-        <v>44277</v>
+        <v>44150</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P57" s="4"/>
       <c r="S57" s="4"/>
@@ -4301,103 +4147,97 @@
       <c r="AE57" s="4"/>
       <c r="AH57" s="4"/>
       <c r="AL57" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN57" s="2">
-        <v>44277</v>
+        <v>44150</v>
       </c>
       <c r="AS57" s="4"/>
       <c r="AY57" s="4"/>
       <c r="BH57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>352173122850</v>
+        <v>352173491922</v>
       </c>
       <c r="B58" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D58" s="2">
-        <v>35396</v>
+        <v>31225</v>
       </c>
       <c r="E58" s="2">
-        <v>44268</v>
+        <v>44275</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
-      </c>
-      <c r="L58" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44278</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P58" s="4"/>
       <c r="S58" s="4"/>
       <c r="V58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AE58" s="4"/>
-      <c r="AH58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="2">
-        <v>44271</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>26</v>
-      </c>
+      <c r="AH58" s="4"/>
       <c r="AL58" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM58" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AN58" s="2">
-        <v>44271</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>26</v>
+        <v>44278</v>
       </c>
       <c r="AS58" s="4"/>
       <c r="AY58" s="4"/>
       <c r="BH58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>352173314711</v>
+        <v>352173148057</v>
       </c>
       <c r="B59" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="D59" s="2">
-        <v>15058</v>
+        <v>32220</v>
       </c>
       <c r="E59" s="2">
-        <v>44278</v>
+        <v>44274</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="J59" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P59" s="4"/>
       <c r="S59" s="4"/>
@@ -4407,103 +4247,97 @@
       <c r="AE59" s="4"/>
       <c r="AH59" s="4"/>
       <c r="AL59" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN59" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="AS59" s="4"/>
       <c r="AY59" s="4"/>
       <c r="BH59" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>352172859490</v>
+        <v>352173297729</v>
       </c>
       <c r="B60" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="D60" s="2">
-        <v>27592</v>
+        <v>41142</v>
       </c>
       <c r="E60" s="2">
         <v>44274</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P60" s="4"/>
       <c r="S60" s="4"/>
       <c r="V60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="AB60" s="4"/>
       <c r="AE60" s="4"/>
-      <c r="AH60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="2">
-        <v>44276</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>26</v>
-      </c>
+      <c r="AH60" s="4"/>
       <c r="AL60" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM60" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AN60" s="2">
-        <v>44276</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>26</v>
+        <v>44277</v>
       </c>
       <c r="AS60" s="4"/>
       <c r="AY60" s="4"/>
       <c r="BH60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>352173483421</v>
+        <v>352173076943</v>
       </c>
       <c r="B61" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="D61" s="2">
-        <v>31746</v>
+        <v>25713</v>
       </c>
       <c r="E61" s="2">
-        <v>44266</v>
+        <v>44274</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="J61" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P61" s="4"/>
       <c r="S61" s="4"/>
@@ -4513,56 +4347,47 @@
       <c r="AE61" s="4"/>
       <c r="AH61" s="4"/>
       <c r="AL61" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN61" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="AS61" s="4"/>
       <c r="AY61" s="4"/>
-      <c r="BD61" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE61" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF61" s="2">
-        <v>44299</v>
-      </c>
       <c r="BH61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>352173116193</v>
+        <v>352173221533</v>
       </c>
       <c r="B62" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2">
-        <v>34851</v>
+        <v>34436</v>
       </c>
       <c r="E62" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P62" s="4"/>
       <c r="S62" s="4"/>
@@ -4572,57 +4397,43 @@
       <c r="AE62" s="4"/>
       <c r="AH62" s="4"/>
       <c r="AL62" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN62" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="AS62" s="4"/>
       <c r="AY62" s="4"/>
-      <c r="BD62" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF62" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH62" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>352173178671</v>
+        <v>352173401141</v>
       </c>
       <c r="B63" s="2">
         <v>44278</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D63" s="2">
-        <v>26373</v>
+        <v>21135</v>
       </c>
       <c r="E63" s="2">
-        <v>44270</v>
+        <v>44078</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
-      </c>
-      <c r="J63" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L63" s="3"/>
       <c r="P63" s="4"/>
       <c r="S63" s="4"/>
       <c r="V63" s="4"/>
@@ -4630,48 +4441,43 @@
       <c r="AB63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AH63" s="4"/>
-      <c r="AL63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM63" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN63" s="2">
-        <v>44278</v>
-      </c>
+      <c r="AL63" s="4"/>
       <c r="AS63" s="4"/>
       <c r="AY63" s="4"/>
       <c r="BD63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE63" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="BF63" s="2">
-        <v>44411</v>
+        <v>44594</v>
       </c>
       <c r="BH63" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>352172848499</v>
+        <v>352173153734</v>
       </c>
       <c r="B64" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
+        <v>114</v>
+      </c>
+      <c r="D64" s="2">
+        <v>29694</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44271</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L64" s="3"/>
       <c r="P64" s="4"/>
@@ -4685,32 +4491,37 @@
       <c r="AS64" s="4"/>
       <c r="AY64" s="4"/>
       <c r="BH64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>352172828979</v>
+        <v>352173062981</v>
       </c>
       <c r="B65" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2">
-        <v>31806</v>
+        <v>42036</v>
       </c>
       <c r="E65" s="2">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="J65" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P65" s="4"/>
       <c r="S65" s="4"/>
       <c r="V65" s="4"/>
@@ -4718,41 +4529,44 @@
       <c r="AB65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AH65" s="4"/>
-      <c r="AL65" s="4"/>
+      <c r="AL65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>44277</v>
+      </c>
       <c r="AS65" s="4"/>
       <c r="AY65" s="4"/>
       <c r="BH65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>352172837933</v>
+        <v>352173032612</v>
       </c>
       <c r="B66" s="2">
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2">
-        <v>25905</v>
+        <v>31118</v>
       </c>
       <c r="E66" s="2">
-        <v>44269</v>
+        <v>44271</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="2">
-        <v>44275</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L66" s="3"/>
       <c r="P66" s="4"/>
       <c r="S66" s="4"/>
       <c r="V66" s="4"/>
@@ -4760,98 +4574,112 @@
       <c r="AB66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AH66" s="4"/>
-      <c r="AL66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN66" s="2">
-        <v>44275</v>
-      </c>
+      <c r="AL66" s="4"/>
       <c r="AS66" s="4"/>
       <c r="AY66" s="4"/>
       <c r="BH66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>352172837668</v>
+        <v>352173178206</v>
       </c>
       <c r="B67" s="2">
-        <v>44275</v>
+        <v>44278</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D67" s="2">
-        <v>27850</v>
+        <v>34500</v>
       </c>
       <c r="E67" s="2">
-        <v>44261</v>
+        <v>44267</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="2">
-        <v>44275</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L67" s="3"/>
       <c r="P67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="V67" s="4"/>
+      <c r="S67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T67" s="2">
+        <v>44277</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W67" s="2">
+        <v>44277</v>
+      </c>
       <c r="Y67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AH67" s="4"/>
       <c r="AL67" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AN67" s="2">
-        <v>44275</v>
-      </c>
-      <c r="AS67" s="4"/>
+        <v>44277</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT67" s="2">
+        <v>44277</v>
+      </c>
       <c r="AY67" s="4"/>
+      <c r="BD67" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE67" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF67" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH67" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>352173156761</v>
+        <v>352172982647</v>
       </c>
       <c r="B68" s="2">
         <v>44277</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D68" s="2">
-        <v>20615</v>
+        <v>34629</v>
       </c>
       <c r="E68" s="2">
-        <v>44277</v>
+        <v>44273</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="J68" s="2">
         <v>44277</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P68" s="4"/>
       <c r="S68" s="4"/>
@@ -4861,10 +4689,10 @@
       <c r="AE68" s="4"/>
       <c r="AH68" s="4"/>
       <c r="AL68" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN68" s="2">
         <v>44277</v>
@@ -4872,37 +4700,32 @@
       <c r="AS68" s="4"/>
       <c r="AY68" s="4"/>
       <c r="BH68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>352172883220</v>
+        <v>352173485792</v>
       </c>
       <c r="B69" s="2">
-        <v>44276</v>
+        <v>44278</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="D69" s="2">
-        <v>35606</v>
+        <v>33505</v>
       </c>
       <c r="E69" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
-      </c>
-      <c r="J69" s="2">
-        <v>44276</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L69" s="3"/>
       <c r="P69" s="4"/>
       <c r="S69" s="4"/>
       <c r="V69" s="4"/>
@@ -4910,103 +4733,122 @@
       <c r="AB69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AH69" s="4"/>
-      <c r="AL69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN69" s="2">
-        <v>44276</v>
-      </c>
+      <c r="AL69" s="4"/>
       <c r="AS69" s="4"/>
       <c r="AY69" s="4"/>
+      <c r="BD69" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF69" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>352173375009</v>
+        <v>352173101209</v>
       </c>
       <c r="B70" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2">
-        <v>30315</v>
+        <v>31812</v>
       </c>
       <c r="E70" s="2">
-        <v>44274</v>
+        <v>44263</v>
       </c>
       <c r="F70" t="s">
-        <v>169</v>
-      </c>
-      <c r="J70" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L70" s="3"/>
       <c r="P70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="S70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T70" s="2">
+        <v>44277</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W70" s="2">
+        <v>44277</v>
+      </c>
       <c r="Y70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AH70" s="4"/>
       <c r="AL70" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AN70" s="2">
-        <v>44278</v>
-      </c>
-      <c r="AS70" s="4"/>
+        <v>44277</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT70" s="2">
+        <v>44277</v>
+      </c>
       <c r="AY70" s="4"/>
       <c r="BD70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE70" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BF70" s="2">
         <v>44411</v>
       </c>
       <c r="BH70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>352173174297</v>
+        <v>352173337557</v>
       </c>
       <c r="B71" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D71" s="2">
-        <v>24113</v>
+        <v>20126</v>
       </c>
       <c r="E71" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
-      </c>
-      <c r="L71" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="J71" s="2">
+        <v>44271</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P71" s="4"/>
       <c r="S71" s="4"/>
       <c r="V71" s="4"/>
@@ -5014,41 +4856,44 @@
       <c r="AB71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AH71" s="4"/>
-      <c r="AL71" s="4"/>
+      <c r="AL71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>44271</v>
+      </c>
       <c r="AS71" s="4"/>
       <c r="AY71" s="4"/>
       <c r="BH71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>352173351085</v>
+        <v>352172974958</v>
       </c>
       <c r="B72" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="D72" s="2">
-        <v>28909</v>
+        <v>35843</v>
       </c>
       <c r="E72" s="2">
-        <v>44146</v>
+        <v>44271</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
-      </c>
-      <c r="J72" s="2">
-        <v>44150</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="L72" s="3"/>
       <c r="P72" s="4"/>
       <c r="S72" s="4"/>
       <c r="V72" s="4"/>
@@ -5056,48 +4901,40 @@
       <c r="AB72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AH72" s="4"/>
-      <c r="AL72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN72" s="2">
-        <v>44150</v>
-      </c>
+      <c r="AL72" s="4"/>
       <c r="AS72" s="4"/>
       <c r="AY72" s="4"/>
       <c r="BH72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>352173491922</v>
+        <v>352173393074</v>
       </c>
       <c r="B73" s="2">
         <v>44278</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="D73" s="2">
-        <v>31225</v>
+        <v>35843</v>
       </c>
       <c r="E73" s="2">
-        <v>44275</v>
+        <v>44267</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J73" s="2">
         <v>44278</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P73" s="4"/>
       <c r="S73" s="4"/>
@@ -5107,48 +4944,52 @@
       <c r="AE73" s="4"/>
       <c r="AH73" s="4"/>
       <c r="AL73" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN73" s="2">
         <v>44278</v>
       </c>
       <c r="AS73" s="4"/>
       <c r="AY73" s="4"/>
+      <c r="BD73" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF73" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH73" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>352173148057</v>
+        <v>352173234810</v>
       </c>
       <c r="B74" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D74" s="2">
-        <v>32220</v>
+        <v>43290</v>
       </c>
       <c r="E74" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
-      </c>
-      <c r="J74" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L74" s="3"/>
       <c r="P74" s="4"/>
       <c r="S74" s="4"/>
       <c r="V74" s="4"/>
@@ -5156,49 +4997,39 @@
       <c r="AB74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AH74" s="4"/>
-      <c r="AL74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AL74" s="4"/>
       <c r="AS74" s="4"/>
       <c r="AY74" s="4"/>
+      <c r="BE74" t="s">
+        <v>132</v>
+      </c>
       <c r="BH74" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>352173297729</v>
+        <v>352173189809</v>
       </c>
       <c r="B75" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D75" s="2">
-        <v>41142</v>
+        <v>31612</v>
       </c>
       <c r="E75" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
-      </c>
-      <c r="J75" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L75" s="3"/>
       <c r="P75" s="4"/>
       <c r="S75" s="4"/>
       <c r="V75" s="4"/>
@@ -5206,48 +5037,46 @@
       <c r="AB75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AH75" s="4"/>
-      <c r="AL75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN75" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AL75" s="4"/>
       <c r="AS75" s="4"/>
       <c r="AY75" s="4"/>
+      <c r="BD75" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF75" s="2">
+        <v>44386</v>
+      </c>
       <c r="BH75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>352173076943</v>
+        <v>352172991958</v>
       </c>
       <c r="B76" s="2">
         <v>44277</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2">
-        <v>25713</v>
+        <v>31524</v>
       </c>
       <c r="E76" s="2">
-        <v>44274</v>
+        <v>44271</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="J76" s="2">
         <v>44277</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P76" s="4"/>
       <c r="S76" s="4"/>
@@ -5257,47 +5086,56 @@
       <c r="AE76" s="4"/>
       <c r="AH76" s="4"/>
       <c r="AL76" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN76" s="2">
         <v>44277</v>
       </c>
       <c r="AS76" s="4"/>
       <c r="AY76" s="4"/>
+      <c r="BD76" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF76" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH76" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>352173221533</v>
+        <v>352173256597</v>
       </c>
       <c r="B77" s="2">
-        <v>44278</v>
+        <v>44256</v>
       </c>
       <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="2">
+        <v>29154</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44253</v>
+      </c>
+      <c r="F77" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="2">
-        <v>34436</v>
-      </c>
-      <c r="E77" s="2">
-        <v>44274</v>
-      </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
       <c r="J77" s="2">
-        <v>44278</v>
+        <v>44256</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P77" s="4"/>
       <c r="S77" s="4"/>
@@ -5307,43 +5145,48 @@
       <c r="AE77" s="4"/>
       <c r="AH77" s="4"/>
       <c r="AL77" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN77" s="2">
-        <v>44278</v>
+        <v>44256</v>
       </c>
       <c r="AS77" s="4"/>
       <c r="AY77" s="4"/>
       <c r="BH77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>352173401141</v>
+        <v>352173106050</v>
       </c>
       <c r="B78" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="D78" s="2">
-        <v>21135</v>
+        <v>32341</v>
       </c>
       <c r="E78" s="2">
-        <v>44078</v>
+        <v>44271</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
-      </c>
-      <c r="L78" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P78" s="4"/>
       <c r="S78" s="4"/>
       <c r="V78" s="4"/>
@@ -5351,43 +5194,51 @@
       <c r="AB78" s="4"/>
       <c r="AE78" s="4"/>
       <c r="AH78" s="4"/>
-      <c r="AL78" s="4"/>
+      <c r="AL78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>44277</v>
+      </c>
       <c r="AS78" s="4"/>
       <c r="AY78" s="4"/>
       <c r="BD78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE78" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="BF78" s="2">
-        <v>44594</v>
+        <v>44411</v>
       </c>
       <c r="BH78" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>352173153734</v>
+        <v>352172830247</v>
       </c>
       <c r="B79" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D79" s="2">
-        <v>29694</v>
+        <v>21358</v>
       </c>
       <c r="E79" s="2">
-        <v>44271</v>
+        <v>44269</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="L79" s="3"/>
       <c r="P79" s="4"/>
@@ -5401,82 +5252,93 @@
       <c r="AS79" s="4"/>
       <c r="AY79" s="4"/>
       <c r="BH79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>352173062981</v>
+        <v>352173227156</v>
       </c>
       <c r="B80" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2">
-        <v>42036</v>
+        <v>32704</v>
       </c>
       <c r="E80" s="2">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L80" s="3"/>
       <c r="P80" s="4"/>
       <c r="S80" s="4"/>
       <c r="V80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AE80" s="4"/>
-      <c r="AH80" s="4"/>
+      <c r="AH80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>44278</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>22</v>
+      </c>
       <c r="AL80" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM80" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN80" s="2">
-        <v>44277</v>
+        <v>44278</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>22</v>
       </c>
       <c r="AS80" s="4"/>
       <c r="AY80" s="4"/>
       <c r="BH80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>352173032612</v>
+        <v>352172968186</v>
       </c>
       <c r="B81" s="2">
         <v>44277</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2">
-        <v>31118</v>
+        <v>41810</v>
       </c>
       <c r="E81" s="2">
-        <v>44271</v>
+        <v>44274</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
-      </c>
-      <c r="L81" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="J81" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P81" s="4"/>
       <c r="S81" s="4"/>
       <c r="V81" s="4"/>
@@ -5484,112 +5346,107 @@
       <c r="AB81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AH81" s="4"/>
-      <c r="AL81" s="4"/>
+      <c r="AL81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>44277</v>
+      </c>
       <c r="AS81" s="4"/>
       <c r="AY81" s="4"/>
       <c r="BH81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>352173178206</v>
+        <v>352173153304</v>
       </c>
       <c r="B82" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D82" s="2">
-        <v>34500</v>
+        <v>34173</v>
       </c>
       <c r="E82" s="2">
-        <v>44267</v>
+        <v>44274</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
-      </c>
-      <c r="L82" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="J82" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P82" s="4"/>
-      <c r="S82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T82" s="2">
-        <v>44277</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W82" s="2">
-        <v>44277</v>
-      </c>
+      <c r="S82" s="4"/>
+      <c r="V82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AH82" s="4"/>
       <c r="AL82" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN82" s="2">
         <v>44277</v>
       </c>
-      <c r="AR82" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT82" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AS82" s="4"/>
       <c r="AY82" s="4"/>
       <c r="BD82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BE82" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BF82" s="2">
         <v>44411</v>
       </c>
       <c r="BH82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BI82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>352172982647</v>
+        <v>352172975742</v>
       </c>
       <c r="B83" s="2">
         <v>44277</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D83" s="2">
-        <v>34629</v>
+        <v>37197</v>
       </c>
       <c r="E83" s="2">
         <v>44273</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J83" s="2">
         <v>44277</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P83" s="4"/>
       <c r="S83" s="4"/>
@@ -5599,10 +5456,10 @@
       <c r="AE83" s="4"/>
       <c r="AH83" s="4"/>
       <c r="AL83" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN83" s="2">
         <v>44277</v>
@@ -5610,32 +5467,37 @@
       <c r="AS83" s="4"/>
       <c r="AY83" s="4"/>
       <c r="BH83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>352173485792</v>
+        <v>352172838352</v>
       </c>
       <c r="B84" s="2">
-        <v>44278</v>
+        <v>44275</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
-        <v>33505</v>
+        <v>37488</v>
       </c>
       <c r="E84" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="F84" t="s">
-        <v>193</v>
-      </c>
-      <c r="L84" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="J84" s="2">
+        <v>44275</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P84" s="4"/>
       <c r="S84" s="4"/>
       <c r="V84" s="4"/>
@@ -5643,122 +5505,94 @@
       <c r="AB84" s="4"/>
       <c r="AE84" s="4"/>
       <c r="AH84" s="4"/>
-      <c r="AL84" s="4"/>
+      <c r="AL84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>44275</v>
+      </c>
       <c r="AS84" s="4"/>
       <c r="AY84" s="4"/>
-      <c r="BD84" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE84" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF84" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH84" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>352173101209</v>
+        <v>352173050748</v>
       </c>
       <c r="B85" s="2">
         <v>44277</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D85" s="2">
-        <v>31812</v>
+        <v>28586</v>
       </c>
       <c r="E85" s="2">
-        <v>44263</v>
+        <v>44275</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
-      </c>
-      <c r="L85" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44277</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P85" s="4"/>
-      <c r="S85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T85" s="2">
-        <v>44277</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W85" s="2">
-        <v>44277</v>
-      </c>
+      <c r="S85" s="4"/>
+      <c r="V85" s="4"/>
       <c r="Y85" s="4"/>
       <c r="AB85" s="4"/>
       <c r="AE85" s="4"/>
       <c r="AH85" s="4"/>
       <c r="AL85" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN85" s="2">
         <v>44277</v>
       </c>
-      <c r="AR85" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT85" s="2">
-        <v>44277</v>
-      </c>
+      <c r="AS85" s="4"/>
       <c r="AY85" s="4"/>
-      <c r="BD85" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE85" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF85" s="2">
-        <v>44411</v>
-      </c>
       <c r="BH85" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BI85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>352173337557</v>
+        <v>352172973540</v>
       </c>
       <c r="B86" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="D86" s="2">
-        <v>20126</v>
+        <v>35647</v>
       </c>
       <c r="E86" s="2">
-        <v>44269</v>
+        <v>44273</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
-      </c>
-      <c r="J86" s="2">
-        <v>44271</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="L86" s="3"/>
       <c r="P86" s="4"/>
       <c r="S86" s="4"/>
       <c r="V86" s="4"/>
@@ -5766,771 +5600,26 @@
       <c r="AB86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AH86" s="4"/>
-      <c r="AL86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM86" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN86" s="2">
-        <v>44271</v>
-      </c>
+      <c r="AL86" s="4"/>
       <c r="AS86" s="4"/>
       <c r="AY86" s="4"/>
+      <c r="BD86" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE86" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF86" s="2">
+        <v>44411</v>
+      </c>
       <c r="BH86" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BI86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>352172974958</v>
-      </c>
-      <c r="B87" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="2">
-        <v>35843</v>
-      </c>
-      <c r="E87" s="2">
-        <v>44271</v>
-      </c>
-      <c r="F87" t="s">
-        <v>70</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="P87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AH87" s="4"/>
-      <c r="AL87" s="4"/>
-      <c r="AS87" s="4"/>
-      <c r="AY87" s="4"/>
-      <c r="BH87" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>352173393074</v>
-      </c>
-      <c r="B88" s="2">
-        <v>44278</v>
-      </c>
-      <c r="C88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="2">
-        <v>35843</v>
-      </c>
-      <c r="E88" s="2">
-        <v>44267</v>
-      </c>
-      <c r="F88" t="s">
-        <v>173</v>
-      </c>
-      <c r="J88" s="2">
-        <v>44278</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AH88" s="4"/>
-      <c r="AL88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM88" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN88" s="2">
-        <v>44278</v>
-      </c>
-      <c r="AS88" s="4"/>
-      <c r="AY88" s="4"/>
-      <c r="BD88" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE88" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF88" s="2">
-        <v>44411</v>
-      </c>
-      <c r="BH88" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>352173234810</v>
-      </c>
-      <c r="B89" s="2">
-        <v>44278</v>
-      </c>
-      <c r="C89" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="2">
-        <v>43290</v>
-      </c>
-      <c r="E89" s="2">
-        <v>44275</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-      <c r="L89" s="3"/>
-      <c r="P89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AE89" s="4"/>
-      <c r="AH89" s="4"/>
-      <c r="AL89" s="4"/>
-      <c r="AS89" s="4"/>
-      <c r="AY89" s="4"/>
-      <c r="BE89" t="s">
-        <v>143</v>
-      </c>
-      <c r="BH89" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>352173189809</v>
-      </c>
-      <c r="B90" s="2">
-        <v>44278</v>
-      </c>
-      <c r="C90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="2">
-        <v>31612</v>
-      </c>
-      <c r="E90" s="2">
-        <v>44275</v>
-      </c>
-      <c r="F90" t="s">
-        <v>138</v>
-      </c>
-      <c r="L90" s="3"/>
-      <c r="P90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AE90" s="4"/>
-      <c r="AH90" s="4"/>
-      <c r="AL90" s="4"/>
-      <c r="AS90" s="4"/>
-      <c r="AY90" s="4"/>
-      <c r="BD90" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF90" s="2">
-        <v>44386</v>
-      </c>
-      <c r="BH90" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>352172991958</v>
-      </c>
-      <c r="B91" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C91" t="s">
-        <v>79</v>
-      </c>
-      <c r="D91" s="2">
-        <v>31524</v>
-      </c>
-      <c r="E91" s="2">
-        <v>44271</v>
-      </c>
-      <c r="F91" t="s">
-        <v>40</v>
-      </c>
-      <c r="J91" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AE91" s="4"/>
-      <c r="AH91" s="4"/>
-      <c r="AL91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM91" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN91" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AS91" s="4"/>
-      <c r="AY91" s="4"/>
-      <c r="BD91" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE91" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF91" s="2">
-        <v>44411</v>
-      </c>
-      <c r="BH91" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>352173256597</v>
-      </c>
-      <c r="B92" s="2">
-        <v>44256</v>
-      </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="2">
-        <v>29154</v>
-      </c>
-      <c r="E92" s="2">
-        <v>44253</v>
-      </c>
-      <c r="F92" t="s">
-        <v>152</v>
-      </c>
-      <c r="J92" s="2">
-        <v>44256</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AE92" s="4"/>
-      <c r="AH92" s="4"/>
-      <c r="AL92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM92" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN92" s="2">
-        <v>44256</v>
-      </c>
-      <c r="AS92" s="4"/>
-      <c r="AY92" s="4"/>
-      <c r="BH92" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>352173106050</v>
-      </c>
-      <c r="B93" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C93" t="s">
-        <v>103</v>
-      </c>
-      <c r="D93" s="2">
-        <v>32341</v>
-      </c>
-      <c r="E93" s="2">
-        <v>44271</v>
-      </c>
-      <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="J93" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AE93" s="4"/>
-      <c r="AH93" s="4"/>
-      <c r="AL93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM93" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN93" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AS93" s="4"/>
-      <c r="AY93" s="4"/>
-      <c r="BD93" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE93" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF93" s="2">
-        <v>44411</v>
-      </c>
-      <c r="BH93" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>352172830247</v>
-      </c>
-      <c r="B94" s="2">
-        <v>44276</v>
-      </c>
-      <c r="C94" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="2">
-        <v>21358</v>
-      </c>
-      <c r="E94" s="2">
-        <v>44269</v>
-      </c>
-      <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" s="3"/>
-      <c r="P94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AE94" s="4"/>
-      <c r="AH94" s="4"/>
-      <c r="AL94" s="4"/>
-      <c r="AS94" s="4"/>
-      <c r="AY94" s="4"/>
-      <c r="BH94" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>352173227156</v>
-      </c>
-      <c r="B95" s="2">
-        <v>44278</v>
-      </c>
-      <c r="C95" t="s">
-        <v>141</v>
-      </c>
-      <c r="D95" s="2">
-        <v>32704</v>
-      </c>
-      <c r="E95" s="2">
-        <v>44277</v>
-      </c>
-      <c r="F95" t="s">
-        <v>140</v>
-      </c>
-      <c r="L95" s="3"/>
-      <c r="P95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AE95" s="4"/>
-      <c r="AH95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI95" s="2">
-        <v>44278</v>
-      </c>
-      <c r="AJ95" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM95" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN95" s="2">
-        <v>44278</v>
-      </c>
-      <c r="AO95" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS95" s="4"/>
-      <c r="AY95" s="4"/>
-      <c r="BH95" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>352172968186</v>
-      </c>
-      <c r="B96" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D96" s="2">
-        <v>41810</v>
-      </c>
-      <c r="E96" s="2">
-        <v>44274</v>
-      </c>
-      <c r="F96" t="s">
-        <v>66</v>
-      </c>
-      <c r="J96" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AE96" s="4"/>
-      <c r="AH96" s="4"/>
-      <c r="AL96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM96" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN96" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AS96" s="4"/>
-      <c r="AY96" s="4"/>
-      <c r="BH96" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>352173153304</v>
-      </c>
-      <c r="B97" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D97" s="2">
-        <v>34173</v>
-      </c>
-      <c r="E97" s="2">
-        <v>44274</v>
-      </c>
-      <c r="F97" t="s">
-        <v>122</v>
-      </c>
-      <c r="J97" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AE97" s="4"/>
-      <c r="AH97" s="4"/>
-      <c r="AL97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM97" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN97" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AS97" s="4"/>
-      <c r="AY97" s="4"/>
-      <c r="BD97" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE97" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF97" s="2">
-        <v>44411</v>
-      </c>
-      <c r="BH97" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>352172975742</v>
-      </c>
-      <c r="B98" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C98" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="2">
-        <v>37197</v>
-      </c>
-      <c r="E98" s="2">
-        <v>44273</v>
-      </c>
-      <c r="F98" t="s">
-        <v>64</v>
-      </c>
-      <c r="J98" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AE98" s="4"/>
-      <c r="AH98" s="4"/>
-      <c r="AL98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM98" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN98" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AS98" s="4"/>
-      <c r="AY98" s="4"/>
-      <c r="BH98" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>352172838352</v>
-      </c>
-      <c r="B99" s="2">
-        <v>44275</v>
-      </c>
-      <c r="C99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" s="2">
-        <v>37488</v>
-      </c>
-      <c r="E99" s="2">
-        <v>44272</v>
-      </c>
-      <c r="F99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J99" s="2">
-        <v>44275</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AE99" s="4"/>
-      <c r="AH99" s="4"/>
-      <c r="AL99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM99" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN99" s="2">
-        <v>44275</v>
-      </c>
-      <c r="AS99" s="4"/>
-      <c r="AY99" s="4"/>
-      <c r="BH99" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>352173050748</v>
-      </c>
-      <c r="B100" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D100" s="2">
-        <v>28586</v>
-      </c>
-      <c r="E100" s="2">
-        <v>44275</v>
-      </c>
-      <c r="F100" t="s">
-        <v>31</v>
-      </c>
-      <c r="J100" s="2">
-        <v>44277</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AE100" s="4"/>
-      <c r="AH100" s="4"/>
-      <c r="AL100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM100" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN100" s="2">
-        <v>44277</v>
-      </c>
-      <c r="AS100" s="4"/>
-      <c r="AY100" s="4"/>
-      <c r="BH100" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>352172973540</v>
-      </c>
-      <c r="B101" s="2">
-        <v>44277</v>
-      </c>
-      <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" s="2">
-        <v>35647</v>
-      </c>
-      <c r="E101" s="2">
-        <v>44273</v>
-      </c>
-      <c r="F101" t="s">
-        <v>68</v>
-      </c>
-      <c r="L101" s="3"/>
-      <c r="P101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="AB101" s="4"/>
-      <c r="AE101" s="4"/>
-      <c r="AH101" s="4"/>
-      <c r="AL101" s="4"/>
-      <c r="AS101" s="4"/>
-      <c r="AY101" s="4"/>
-      <c r="BD101" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE101" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF101" s="2">
-        <v>44411</v>
-      </c>
-      <c r="BH101" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI101"/>
   <sortState ref="A2:BI302">
     <sortCondition ref="C2:C302"/>
   </sortState>
